--- a/_site/Data/SNAPEBT.xlsx
+++ b/_site/Data/SNAPEBT.xlsx
@@ -59,7 +59,7 @@
     <t>What, if any, impact do you expect this reduction in SNAP/EBT benefits to have on your household?</t>
   </si>
   <si>
-    <t>Free Response</t>
+    <t>Open ended response</t>
   </si>
 </sst>
 </file>
